--- a/dss/PyomoSolver/solution.xlsx
+++ b/dss/PyomoSolver/solution.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="soln" sheetId="1" r:id="rId1"/>
+    <sheet name="investmentsoln" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>price</t>
   </si>
@@ -29,6 +30,9 @@
   </si>
   <si>
     <t>material_id</t>
+  </si>
+  <si>
+    <t>agent_id</t>
   </si>
 </sst>
 </file>
@@ -386,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,16 +424,14 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>640.75</v>
+        <v>-69.66800000000001</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -437,10 +439,121 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>640</v>
+        <v>-70.708</v>
       </c>
       <c r="E3">
         <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-77</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-77</v>
+      </c>
+      <c r="E5">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-77</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dss/PyomoSolver/solution.xlsx
+++ b/dss/PyomoSolver/solution.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,7 +415,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -424,10 +424,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-69.66800000000001</v>
+        <v>58.157</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,62 +439,81 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-70.708</v>
+        <v>58.099</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-77</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-77</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>1800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-77</v>
-      </c>
-      <c r="E6">
-        <v>5000</v>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>260</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -502,7 +521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,15 +537,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -534,26 +553,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dss/PyomoSolver/solution.xlsx
+++ b/dss/PyomoSolver/solution.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,10 +424,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>58.157</v>
+        <v>-60.843</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,76 +439,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>58.099</v>
+        <v>-60.901</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>-77</v>
       </c>
       <c r="E4">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>42</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>260</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>260</v>
-      </c>
-      <c r="E7">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -549,22 +498,6 @@
       </c>
       <c r="B3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
